--- a/요구 사항 정의서(기능 요구 사항) rev1.1 231215.xlsx
+++ b/요구 사항 정의서(기능 요구 사항) rev1.1 231215.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\요구 사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -292,18 +292,6 @@
     <t>REQ_06_03</t>
   </si>
   <si>
-    <t xml:space="preserve">비밀번호 찾기버튼을 누르면 비밀번호 찾기 화면으로 바뀌며 회원가입시 가입한 아이디, 이름,전화번호,이메일 모두를 동일하게 입력하면 아이디를 알려주는 화면이 뜬다.
-그리고 아이디를 잊으셨나요? 문구와 아이디찾기 버튼도 같이 뜨게 설정한다.
-하나라도 정보가 틀렸다면 본인 확인에 실패하였습니다. 입력하신 내용을 다시 확인해주세요.라는 문구가 뜬다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입을 한 적이 있고 아이디, 비밀번호를 맞게 입력하면 로그인이 되며 로그인버튼이 사라지고 로그아웃버튼이 추가된다.
-로그인 창에서 회원가입시 고객의 아이디와 비밀번호가 하나라도 일치하지 않는 경우 로그인이 되지 않는다.
-또한 아래에 아이디찾기, 비밀번호찾기, 회원가입 버튼을 추가하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세 검색버튼을 누르면 고객이 타이어 제조사, 적용차종, 타이어특성, 단면폭, 편평비, 휠지름을 선택하여 상세검색을 선택할 수 있는 창이 모달로 나온다. 
 모두 다 선택하지 않으면 전기차 타이어 모든 제품을 볼 수 있으며, 일부/중복 선택해도 선택에 맞는 상품의 이미지, 상품명, 상품상세정보, 가격을 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +329,18 @@
 로그인도 했고 수량도 선택했다면 장바구니버튼을 눌렀을 때 장바구니에담기완료 모달을 띄우며 모달 내에는 상품이미지, 상품명, 가격, 수량, 총금액을 보여주며 장바구니로 넘어가기 버튼이 뜬다.
 또한 장바구니로 넘어가기 버튼을 눌렀을 경우 장바구니화면으로 넘어간다.
 로그인도 했고 수량도 선택했다면 구매하기버튼을 눌렀을 때 배송정보(주소,이름,연락처)를 보여주고, 상품정보(상품이미지, 상품명, 수량, 주문금액)을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 한 적이 있고 아이디, 비밀번호를 맞게 입력하면 로그인이 되며 로그인버튼이 사라지고 로그아웃버튼이 추가된다.
+로그인 창에서 회원가입시 고객의 아이디와 비밀번호가 하나라도 일치하지 않는 경우 로그인이 되지 않는다.
+또한 아래에 아이디찾기, 비밀번호찾기, 회원가입 버튼을 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀번호 찾기버튼을 누르면 비밀번호 찾기 화면으로 바뀌며 회원가입시 가입한 아이디, 이름,전화번호,이메일 모두를 동일하게 입력하면 비밀번호를 알려주는 화면이 뜬다.
+그리고 아이디를 잊으셨나요? 문구와 아이디찾기 버튼도 같이 뜨게 설정한다.
+하나라도 정보가 틀렸다면 본인 확인에 실패하였습니다. 입력하신 내용을 다시 확인해주세요.라는 문구가 뜬다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +892,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G24" sqref="G23:G24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -903,7 +903,7 @@
     <col min="4" max="4" width="10.796875" customWidth="1"/>
     <col min="5" max="5" width="20.69921875" customWidth="1"/>
     <col min="6" max="6" width="14.8984375" customWidth="1"/>
-    <col min="7" max="7" width="141.69921875" customWidth="1"/>
+    <col min="7" max="7" width="143.296875" customWidth="1"/>
     <col min="8" max="8" width="12.3984375" customWidth="1"/>
     <col min="9" max="9" width="9.296875" customWidth="1"/>
     <col min="10" max="10" width="9.09765625" customWidth="1"/>
@@ -1005,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
@@ -1071,7 +1071,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -1104,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -1137,7 +1137,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1170,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -1401,7 +1401,7 @@
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -1500,7 +1500,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
